--- a/12-21-25 to 12-27-25 Madison Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Madison Schedule.xlsx
@@ -1500,7 +1500,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>

--- a/12-21-25 to 12-27-25 Madison Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Madison Schedule.xlsx
@@ -1707,7 +1707,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2056,21 +2056,9 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2147,7 +2135,11 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2188,7 +2180,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>RUPESH'S STORES</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2231,7 +2223,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>RUPESH'S STORES</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2262,7 +2254,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>WARRENS MALL</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2293,7 +2285,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>WARRENS MALL</t>
+          <t>201 MAIN STREET</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2328,7 +2320,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>201 MAIN STREET</t>
+          <t>https://goo.gl/maps/3hsMf24bHG62</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -2363,7 +2355,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3hsMf24bHG62</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -2398,7 +2390,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -2433,7 +2425,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>THE BERRY VINE, WARRENS</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -2468,7 +2460,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>THE BERRY VINE, WARRENS</t>
+          <t>1800 JELLYSTONE PARK DR</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -2503,7 +2495,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>1800 JELLYSTONE PARK DR</t>
+          <t>https://goo.gl/maps/5jeXrSrPmPP2</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -2532,11 +2524,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5jeXrSrPmPP2</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -2574,9 +2562,21 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -2611,12 +2611,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -2658,12 +2658,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -2705,12 +2705,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -2750,21 +2750,9 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>

--- a/12-21-25 to 12-27-25 Madison Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,7 +1938,11 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please remind manager not to open the file before importing into the POS. </t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1977,21 +1981,9 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2030,17 +2022,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Camry 3, Equip</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2069,12 +2061,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2108,12 +2100,12 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2151,12 +2143,12 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2194,12 +2186,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2235,9 +2227,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2298,11 +2302,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2335,7 +2335,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2370,7 +2370,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>550 SOUTH ROCK DR</t>
+          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
+          <t>550 SOUTH ROCK DR</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2475,7 +2475,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2508,7 +2508,11 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2534,21 +2538,9 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2587,15 +2579,19 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2634,12 +2630,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Davan</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2681,12 +2677,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Davan</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2728,12 +2724,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2763,12 +2759,12 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2798,12 +2794,12 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2833,12 +2829,12 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2861,6 +2857,41 @@
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-21-25 to 12-27-25 Madison Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Madison Schedule.xlsx
@@ -979,7 +979,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Driver,
+          <t>Driver, 1/2
 Camry 3,
 Equip</t>
         </is>
@@ -1028,10 +1028,16 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+Equip</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1075,10 +1081,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1110,13 +1120,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1150,10 +1159,14 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1189,10 +1202,14 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1221,16 +1238,8 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1292,7 +1301,11 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1325,7 +1338,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1360,7 +1373,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>WILLY STREET COOP, MIDDLETON</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1395,7 +1408,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
+          <t>6825 UNIVERSITY AVE</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1430,7 +1443,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>6825 UNIVERSITY AVE</t>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1469,7 +1482,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1498,11 +1511,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1541,9 +1550,22 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -1583,18 +1605,18 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima, Equip</t>
+Silver Van</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -1623,12 +1645,12 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -1658,20 +1680,15 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -1702,19 +1719,15 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -1745,19 +1758,15 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -1788,19 +1797,15 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -1831,17 +1836,18 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -1874,12 +1880,12 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -1917,12 +1923,12 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -1960,12 +1966,12 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -1999,12 +2005,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">

--- a/12-21-25 to 12-27-25 Madison Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Madison Schedule.xlsx
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
